--- a/data/income_statement/2digits/size/92_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/92_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>92-Gambling and betting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>92-Gambling and betting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>48311.03835</v>
+        <v>49406.2469</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>71593.90764</v>
+        <v>72052.70509999999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>80159.26234</v>
+        <v>81675.4299</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>67074.36021</v>
+        <v>69104.10092</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>63962.33193</v>
+        <v>65866.90428</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>71216.53745</v>
+        <v>73338.45505</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>65466.32402</v>
+        <v>71534.57162999999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>94913.93944</v>
+        <v>102734.43877</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>109149.54014</v>
+        <v>117393.82518</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>176452.32097</v>
+        <v>178024.81643</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>220437.98116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>228440.10197</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>194769.596</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>42838.54611</v>
+        <v>43601.43169</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>64386.65061</v>
+        <v>64841.83251</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>71888.27714000001</v>
+        <v>73373.12785999999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>58744.06481</v>
+        <v>60772.76977000001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>59290.50059</v>
+        <v>60283.28199</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>65041.58482</v>
+        <v>66896.77209</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>62947.11836</v>
+        <v>68078.11874999999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>90265.16653</v>
+        <v>97359.53379</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>104565.60139</v>
+        <v>112009.21334</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>169701.72207</v>
+        <v>171192.61813</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>208352.47874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>215156.63647</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>180950.461</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0</v>
@@ -1060,53 +976,63 @@
       <c r="M7" s="48" t="n">
         <v>3214.89843</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>1300.141</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5472.49224</v>
+        <v>5804.81521</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>6869.26168</v>
+        <v>6872.87724</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>7727.80134</v>
+        <v>7759.118179999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7069.14618</v>
+        <v>7070.18193</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4582.55462</v>
+        <v>5494.34557</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>6019.14705</v>
+        <v>6285.87738</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2462.70214</v>
+        <v>3399.94936</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4506.861730000001</v>
+        <v>5232.9938</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4209.99964</v>
+        <v>5010.67273</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>6708.298900000001</v>
+        <v>6789.8983</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>8870.60399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10068.56707</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>12518.994</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>10.90648</v>
+        <v>22.27688</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>24.19944</v>
@@ -1138,14 +1064,19 @@
       <c r="M9" s="47" t="n">
         <v>115.86498</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>109.65</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6.009399999999999</v>
+        <v>17.3798</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>19.04745</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>30.71646</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>17.874</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4.89708</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>85.14852</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>91.776</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>48300.13187</v>
+        <v>49383.97002</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>71569.70820000001</v>
+        <v>72028.50566</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>80156.92260999999</v>
+        <v>81673.09017</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>67067.80146</v>
+        <v>69097.54217</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>63840.14711999999</v>
+        <v>65744.71947</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>68426.22031</v>
+        <v>70548.13790999999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>65465.53876</v>
+        <v>71533.78637</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>94862.88459999999</v>
+        <v>102683.38393</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>109134.02707</v>
+        <v>117378.31211</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>176345.46168</v>
+        <v>177917.95714</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>220322.11618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>228324.23699</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>194659.946</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>36983.98609000001</v>
+        <v>38260.90784000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>56630.47915</v>
+        <v>57065.52454999999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>59255.01457</v>
+        <v>60643.647</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>49727.83314</v>
+        <v>50804.89491</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>46653.09893</v>
+        <v>47482.49161</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>49130.32122</v>
+        <v>50438.14381</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>47007.70198</v>
+        <v>50546.68454</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>70444.94132</v>
+        <v>74791.78671</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>84091.86429000001</v>
+        <v>88985.16511</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>141584.86896</v>
+        <v>142492.77223</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>177381.03222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>183302.24664</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>147104.052</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>53.36807</v>
@@ -1361,100 +1317,115 @@
         <v>662.1697800000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>495.99557</v>
+        <v>560.8575699999999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1170.56467</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1434.82437</v>
+        <v>1509.74821</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4751.11514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4977.46946</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4865.722</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>34621.2538</v>
+        <v>35261.9803</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>42626.68515999999</v>
+        <v>43061.73056</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>42049.1569</v>
+        <v>43404.45983</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>41740.5075</v>
+        <v>42783.64487</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>39921.17447999999</v>
+        <v>40740.91178</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>42124.83023</v>
+        <v>43350.53872</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>40986.66226</v>
+        <v>44017.10614</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>62835.54462</v>
+        <v>66886.26991</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>77654.16667000001</v>
+        <v>81856.53943999999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>132075.06811</v>
+        <v>132420.14454</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>162114.90065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>167003.95058</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>134325.396</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1730.83436</v>
+        <v>2367.02961</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>12790.92561</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>17153.35536</v>
+        <v>17186.68486</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4878.33305</v>
+        <v>4912.25745</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5599.09858</v>
+        <v>5608.75396</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5259.4242</v>
+        <v>5341.5383</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4609.57844</v>
+        <v>5118.11712</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6153.36921</v>
+        <v>6384.62731</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5112.246099999999</v>
+        <v>5803.174150000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8002.65178</v>
+        <v>8490.554779999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>10435.55015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10504.77632</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7848.578</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>578.52986</v>
@@ -1487,91 +1458,106 @@
         <v>72.32469999999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>79.46628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>816.05028</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>64.35599999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>11316.14578</v>
+        <v>11123.06218</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>14939.22905</v>
+        <v>14962.98111</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>20901.90804</v>
+        <v>21029.44317</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>17339.96832</v>
+        <v>18292.64726</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>17187.04819</v>
+        <v>18262.22786</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>19295.89909</v>
+        <v>20109.9941</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>18457.83678</v>
+        <v>20987.10183</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>24417.94328</v>
+        <v>27891.59722</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>25042.16278</v>
+        <v>28393.147</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>34760.59272</v>
+        <v>35425.18491</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>42941.08396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>45021.99035</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>47555.894</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>8363.674139999999</v>
+        <v>10039.61383</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>11250.97621</v>
+        <v>11416.07036</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>12223.11274</v>
+        <v>12562.98995</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>11667.84875</v>
+        <v>12809.66411</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>10707.29611</v>
+        <v>11251.35074</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>11543.35768</v>
+        <v>12145.69872</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>11952.74021</v>
+        <v>38924.12449</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>16010.43111</v>
+        <v>18282.32428</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>16736.388</v>
+        <v>18826.68096</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>24563.36117</v>
+        <v>25157.70441</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>30268.75673</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>32867.98307</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>30001.688</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>7.9</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1378.70917</v>
+        <v>1812.8399</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>921.07812</v>
+        <v>931.0231199999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2719.56868</v>
+        <v>2735.39119</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2400.33711</v>
+        <v>2680.74394</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>905.50739</v>
+        <v>955.56297</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1180.11454</v>
+        <v>1227.36967</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1292.77071</v>
+        <v>1413.6685</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1860.23594</v>
+        <v>1929.58907</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1704.53828</v>
+        <v>1756.943</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2897.91899</v>
+        <v>2919.85046</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3605.26825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3737.81198</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2858.399</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>6977.064969999999</v>
+        <v>8218.87393</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>10329.89809</v>
+        <v>10485.04724</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>9497.71868</v>
+        <v>9821.773380000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>9258.402990000001</v>
+        <v>10119.81152</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>9776.453949999999</v>
+        <v>10270.453</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>10311.47439</v>
+        <v>10866.5603</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>10616.49168</v>
+        <v>37466.97817</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>14117.86979</v>
+        <v>16320.40983</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>15031.84972</v>
+        <v>17069.73796</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>21665.44218</v>
+        <v>22237.85395</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>26663.48848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>29130.17109</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>27143.289</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2952.47164</v>
+        <v>1083.44835</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3688.25284</v>
+        <v>3546.91075</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>8678.795300000002</v>
+        <v>8466.453220000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5672.119570000001</v>
+        <v>5482.98315</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6479.75208</v>
+        <v>7010.87712</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>7752.54141</v>
+        <v>7964.29538</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6505.096570000001</v>
+        <v>-17937.02266</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>8407.51217</v>
+        <v>9609.272939999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>8305.77478</v>
+        <v>9566.466039999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>10197.23155</v>
+        <v>10267.4805</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>12672.32723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12154.00728</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>17554.206</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2187.44698</v>
+        <v>2700.79375</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1481.20767</v>
+        <v>2715.11504</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1832.93837</v>
+        <v>2486.35602</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2883.61845</v>
+        <v>3694.56616</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4483.26059</v>
+        <v>5724.39247</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5285.2628</v>
+        <v>6456.30396</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5226.79571</v>
+        <v>6583.60628</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>6134.11522</v>
+        <v>7298.73971</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5460.11147</v>
+        <v>7056.01058</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8198.10094</v>
+        <v>8807.73472</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8318.674650000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8981.355720000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10450.51</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,89 +1856,104 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>22.57831</v>
+        <v>442.55449</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>86.19396</v>
+        <v>571.96737</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7.86672</v>
+        <v>500.03217</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>16.80324</v>
+        <v>564.55174</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>63.90681</v>
+        <v>502.55868</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>66.98682000000001</v>
+        <v>730.21537</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>104.71001</v>
+        <v>627.18636</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>94.36582000000001</v>
+        <v>722.26914</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>202.16955</v>
+        <v>934.40286</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>199.87517</v>
+        <v>536.60225</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>383.15876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>495.73521</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>347.149</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1927.46299</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1133.58973</v>
+        <v>1880.7585</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1431.11693</v>
+        <v>1673.09174</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2714.86452</v>
+        <v>2975.01951</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4091.45743</v>
+        <v>4442.42458</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4786.86716</v>
+        <v>5124.42273</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4707.123860000001</v>
+        <v>5545.35879</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5590.58295</v>
+        <v>6147.36522</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>4776.317400000001</v>
+        <v>5623.182150000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6919.726</v>
+        <v>7182.89229</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>6983.87472</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7527.57988</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>9631.454</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,29 +1988,34 @@
       <c r="M30" s="48" t="n">
         <v>4.36124</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4.67985</v>
+        <v>5.34524</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.30242</v>
+        <v>1.26761</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0.45762</v>
+        <v>5.649010000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0.03859000000000001</v>
+        <v>12.96765</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>0</v>
+        <v>10.00208</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0</v>
+        <v>21.10695</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>17.79396</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>0.58941</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3.9414</v>
+        <v>96.64660000000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>23.66883</v>
@@ -2015,31 +2056,36 @@
         <v>12.44081</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11.56861</v>
+        <v>452.07939</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>265.96945</v>
+        <v>266.97916</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>147.53078</v>
+        <v>154.43783</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>39.61733</v>
+        <v>40.45424</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>13.75249</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>176.31899</v>
+        <v>186.0594</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>98.46344000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>149.555</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>228.78443</v>
@@ -2126,40 +2182,45 @@
         <v>237.05273</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>369.28134</v>
+        <v>283.36734</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>139.47129</v>
+        <v>129.58645</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>316.32774</v>
+        <v>317.32774</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>165.43937</v>
+        <v>313.57975</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>249.6371</v>
+        <v>238.82934</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>357.35409</v>
+        <v>336.45608</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>395.67666</v>
+        <v>412.47771</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>841.0025899999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>848.22708</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>854.6265400000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>322.087</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>80.39197</v>
+        <v>187.32042</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>837.48698</v>
@@ -2171,31 +2232,36 @@
         <v>1074.85947</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>20.28682</v>
+        <v>601.18621</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>257.96514</v>
+        <v>258.70016</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>108.76746</v>
+        <v>152.86746</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>695.14953</v>
+        <v>696.37949</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>70.20408</v>
+        <v>72.29166000000001</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>90.94349000000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>266.7127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>276.80196</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>646.513</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>38.36929</v>
@@ -2213,13 +2279,13 @@
         <v>17.72713</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>13.29603</v>
+        <v>13.98603</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>9.54294</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2.4541</v>
+        <v>2.8891</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>6.788729999999999</v>
@@ -2228,13 +2294,18 @@
         <v>8.91732</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>124.75908</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>134.84834</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>500.613</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>0.21464</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4.10879</v>
+        <v>111.03724</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>7.01417</v>
@@ -2327,16 +2408,16 @@
         <v>5.94769</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>0.28801</v>
+        <v>578.4525</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>228.69214</v>
+        <v>228.73716</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>95.20600999999999</v>
+        <v>139.30601</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>47.06464</v>
+        <v>47.84149</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4.623939999999999</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>70.62980999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>104.376</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>37.91389</v>
@@ -2444,7 +2540,7 @@
         <v>97.01647</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2.27168</v>
+        <v>5.00658</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>15.97697</v>
@@ -2453,10 +2549,10 @@
         <v>4.01851</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>645.63079</v>
+        <v>645.6489</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>57.93215</v>
+        <v>60.01973</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>45.68099</v>
@@ -2464,89 +2560,104 @@
       <c r="M43" s="48" t="n">
         <v>71.10916999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>41.524</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>283.71036</v>
+        <v>298.17762</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>377.89647</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>310.03683</v>
+        <v>310.16269</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>519.47266</v>
+        <v>520.42799</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>292.65147</v>
+        <v>298.02836</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>364.30113</v>
+        <v>456.55432</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>470.60033</v>
+        <v>1306.95234</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>531.9345</v>
+        <v>578.9891</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>540.82409</v>
+        <v>895.52959</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1087.3398</v>
+        <v>1360.46225</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2844.36035</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3042.54836</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3822.3</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>177.14853</v>
+        <v>191.61579</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>377.89647</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>297.61698</v>
+        <v>297.74284</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>484.71623</v>
+        <v>485.67156</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>286.5226</v>
+        <v>291.89949</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>332.95959</v>
+        <v>425.21278</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>457.14186</v>
+        <v>1293.49387</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>526.19776</v>
+        <v>555.1139499999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>537.19696</v>
+        <v>891.90246</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1071.48269</v>
+        <v>1269.96243</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2837.07617</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3009.44356</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3809.61</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>106.56183</v>
@@ -2570,64 +2681,74 @@
         <v>13.45847</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5.73674</v>
+        <v>23.87515</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>3.62713</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>15.85711</v>
+        <v>90.49982000000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>7.28418</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>33.1048</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4775.81629</v>
+        <v>3298.74406</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3954.07706</v>
+        <v>5046.642339999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>5314.25501</v>
+        <v>5755.20472</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6961.40589</v>
+        <v>7582.26185</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>10650.07438</v>
+        <v>11836.05502</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>12415.53794</v>
+        <v>13705.34486</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>11152.52449</v>
+        <v>-12813.23618</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>13314.54336</v>
+        <v>15632.64406</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>13154.85808</v>
+        <v>15654.65537</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>17217.0492</v>
+        <v>17623.80948</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>17879.92883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>17816.01268</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>23535.903</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>28.27959</v>
+        <v>29.1995</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>110.47631</v>
@@ -2636,34 +2757,39 @@
         <v>180.17178</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>220.57494</v>
+        <v>220.92494</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>217.86228</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>831.19947</v>
+        <v>835.36937</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>295.6147</v>
+        <v>365.6001</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>362.71404</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>338.55132</v>
+        <v>369.02254</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>824.08258</v>
+        <v>930.16656</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>827.6546500000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>874.2542099999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>771.1420000000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2684,7 +2810,7 @@
         <v>0.64598</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>15.73816</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>0</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>28.27959</v>
+        <v>29.1995</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>110.47631</v>
@@ -2714,73 +2845,83 @@
         <v>161.41323</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>220.48235</v>
+        <v>220.83235</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>198.69853</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>830.55349</v>
+        <v>834.72339</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>295.6147</v>
+        <v>349.86194</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>362.71404</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>338.46247</v>
+        <v>368.93369</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>824.08258</v>
+        <v>930.16656</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>802.6546500000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>849.2542099999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>771.101</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>143.41644</v>
+        <v>144.84653</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>52.97205</v>
+        <v>55.11027</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2291.55881</v>
+        <v>2291.59881</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>110.56868</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>149.32875</v>
+        <v>150.7432</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4206.1698</v>
+        <v>4207.12048</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>216.00507</v>
+        <v>1548.8128</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2971.54582</v>
+        <v>3388.77394</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>315.28983</v>
+        <v>321.20141</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3738.37614</v>
+        <v>3759.18876</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>750.5987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>841.95859</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>563.046</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>6.134390000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>14.81472</v>
@@ -2834,10 +2980,10 @@
         <v>22.29915</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>11.40027</v>
+        <v>11.42622</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>0.08425000000000001</v>
+        <v>0.57496</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>20.86319</v>
@@ -2846,7 +2992,7 @@
         <v>14.07535</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>0.66464</v>
+        <v>0.73964</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>1.17525</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>6.69305</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3.499</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>128.60172</v>
+        <v>130.03181</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>49.89755</v>
+        <v>52.03577</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2266.44936</v>
+        <v>2266.48936</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>88.26953</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>137.92848</v>
+        <v>139.31698</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4206.08555</v>
+        <v>4206.54552</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>195.14188</v>
+        <v>1527.94961</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2957.47047</v>
+        <v>3374.69859</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>314.62519</v>
+        <v>320.46177</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3737.20089</v>
+        <v>3758.01351</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>737.77126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>829.13115</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>559.547</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4660.679440000001</v>
+        <v>3183.09703</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4011.58132</v>
+        <v>5102.00838</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3202.86798</v>
+        <v>3643.77769</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>7071.41215</v>
+        <v>7692.61811</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>10718.60791</v>
+        <v>11903.1741</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>9040.56761</v>
+        <v>10333.59375</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>11232.13412</v>
+        <v>-13996.44888</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>10705.71158</v>
+        <v>12606.58416</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>13178.11957</v>
+        <v>15702.4765</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>14302.75564</v>
+        <v>14794.78728</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>17956.98478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>17848.3083</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>23743.999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>550.65597</v>
+        <v>633.32796</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>677.2582199999999</v>
+        <v>895.8626800000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>816.62701</v>
+        <v>847.48965</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1174.8547</v>
+        <v>1296.79679</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1667.74288</v>
+        <v>1802.74276</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1975.21884</v>
+        <v>2213.39449</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1957.76591</v>
+        <v>2222.70453</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2278.19238</v>
+        <v>2640.03425</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2226.76427</v>
+        <v>2686.62689</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3202.00755</v>
+        <v>3347.34204</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4011.68816</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4128.66536</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4325.129</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4110.02347</v>
+        <v>2549.76907</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3334.3231</v>
+        <v>4206.1457</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2386.24097</v>
+        <v>2796.28804</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5896.55745</v>
+        <v>6395.82132</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>9050.865029999999</v>
+        <v>10100.43134</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>7065.34877</v>
+        <v>8120.199259999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>9274.368210000001</v>
+        <v>-16219.15341</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>8427.519199999999</v>
+        <v>9966.54991</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>10951.3553</v>
+        <v>13015.84961</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>11100.74809</v>
+        <v>11447.44524</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>13945.29662</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>13719.64294</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>19418.87</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>430</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>